--- a/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_2_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_2_kato_katz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Malawi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A7D4F9-516E-4553-9BE1-ADCBB4C4BF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42322EF0-1577-4B4A-8061-3FF4B63DE8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -376,19 +376,19 @@
     <t>Select the District</t>
   </si>
   <si>
-    <t>mw_sch_sth_impact_202404_2_kato_katz</t>
-  </si>
-  <si>
-    <t>(2024 Apr) - 2. SCH/STH – Kato-Katz Form</t>
-  </si>
-  <si>
     <t>k_school</t>
   </si>
   <si>
     <t>Select the school</t>
   </si>
   <si>
-    <t>mw_sch_sth_k_202404</t>
+    <t>mw_sch_sth_ia_202404_2_kato_katz_v2</t>
+  </si>
+  <si>
+    <t>(2024 Apr) - 2. SCH/STH – Kato-Katz Form V2</t>
+  </si>
+  <si>
+    <t>mw_sch_sth_k_202404_v2</t>
   </si>
 </sst>
 </file>
@@ -983,7 +983,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1097,10 +1097,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="19"/>
@@ -3192,7 +3192,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3217,10 +3217,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
